--- a/util/schema_functions_MAPPED_script_TMP.xlsx
+++ b/util/schema_functions_MAPPED_script_TMP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\HH-ETL-scripts-main\documentation\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\ETL_Framework\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743AC8A0-FDC8-4686-B45A-B30053F9BD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54EAFC7-2098-47B3-A694-3B2B1F9FDB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="744" windowWidth="23244" windowHeight="11124" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTIONS" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="238">
   <si>
     <t>Description</t>
   </si>
@@ -3371,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4119,6 +4119,9 @@
       <c r="C60" t="s">
         <v>232</v>
       </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
       <c r="H60" t="s">
         <v>237</v>
       </c>
@@ -4132,6 +4135,9 @@
       </c>
       <c r="C61" t="s">
         <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="1048572" ht="14.4" x14ac:dyDescent="0.3"/>
